--- a/18회차_실습체크리스트_황동민.xlsx
+++ b/18회차_실습체크리스트_황동민.xlsx
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,7 +693,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,7 +721,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3342,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
